--- a/src/main/resources/calendarTestCases.xlsx
+++ b/src/main/resources/calendarTestCases.xlsx
@@ -1,31 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testPractice\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FCAA9E-F8A9-4482-83A2-D8D975C67DA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>测试用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>2000年1月1日</t>
+  </si>
+  <si>
+    <t>2000年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +111,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +395,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.75" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1999</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/calendarTestCases.xlsx
+++ b/src/main/resources/calendarTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testPractice\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FCAA9E-F8A9-4482-83A2-D8D975C67DA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D3D887-0170-4923-A5A5-7C82BC6C6BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,26 +55,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>2000年1月1日</t>
   </si>
   <si>
-    <t>2000年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>1900年3月18日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1901年5月21日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2050年6月13日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2099年7月15日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100年6月23日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000年1月26日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001年3月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001年11月27日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002年12月7日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012年3月2日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012年8月3日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006年3月31日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006年6月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1900年3月18日</t>
+  </si>
+  <si>
+    <t>1901年5月21日</t>
+  </si>
+  <si>
+    <t>2050年6月13日</t>
+  </si>
+  <si>
+    <t>2099年7月15日</t>
+  </si>
+  <si>
+    <t>2100年6月23日</t>
+  </si>
+  <si>
+    <t>2000年1月26日</t>
+  </si>
+  <si>
+    <t>2001年3月1日</t>
+  </si>
+  <si>
+    <t>2001年11月27日</t>
+  </si>
+  <si>
+    <t>2002年12月7日</t>
+  </si>
+  <si>
+    <t>2012年3月2日</t>
+  </si>
+  <si>
+    <t>2012年8月3日</t>
+  </si>
+  <si>
+    <t>2006年3月31日</t>
+  </si>
+  <si>
+    <t>2006年6月1日</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,10 +193,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -396,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -436,22 +517,298 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1999</v>
+        <v>1900</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1901</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2050</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2099</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2100</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2001</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2001</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2002</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2012</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2006</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2006</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/calendarTestCases.xlsx
+++ b/src/main/resources/calendarTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testPractice\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D3D887-0170-4923-A5A5-7C82BC6C6BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576D3545-E18E-4684-BCB0-AC1CE5068AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,101 +55,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2000年1月1日</t>
+    <t>1900年3月18日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1901年5月21日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2050年6月13日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2099年7月15日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100年6月23日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000年1月26日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001年3月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001年11月27日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002年12月7日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012年3月2日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012年8月3日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006年3月31日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006年6月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1900年3月18日</t>
   </si>
   <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>1900年3月18日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1901年5月21日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2050年6月13日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2099年7月15日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2100年6月23日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000年1月26日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001年3月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001年11月27日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2002年12月7日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012年3月2日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012年8月3日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2006年3月31日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2006年6月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1900年3月18日</t>
-  </si>
-  <si>
-    <t>1901年5月21日</t>
-  </si>
-  <si>
-    <t>2050年6月13日</t>
-  </si>
-  <si>
-    <t>2099年7月15日</t>
-  </si>
-  <si>
-    <t>2100年6月23日</t>
-  </si>
-  <si>
-    <t>2000年1月26日</t>
-  </si>
-  <si>
-    <t>2001年3月1日</t>
-  </si>
-  <si>
-    <t>2001年11月27日</t>
-  </si>
-  <si>
-    <t>2002年12月7日</t>
-  </si>
-  <si>
-    <t>2012年3月2日</t>
-  </si>
-  <si>
-    <t>2012年8月3日</t>
-  </si>
-  <si>
-    <t>2006年3月31日</t>
-  </si>
-  <si>
-    <t>2006年6月1日</t>
   </si>
 </sst>
 </file>
@@ -480,7 +441,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,13 +487,13 @@
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -549,12 +510,6 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -572,13 +527,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -595,13 +544,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -618,13 +561,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -641,13 +578,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -664,13 +595,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -687,13 +612,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -710,13 +629,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -733,13 +646,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -756,13 +663,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -779,13 +680,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -802,13 +697,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/calendarTestCases.xlsx
+++ b/src/main/resources/calendarTestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testPractice\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576D3545-E18E-4684-BCB0-AC1CE5068AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7935241B-2D55-4345-8234-5D568DCE3F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="72">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,159 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>21(无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23(无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25(无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1901年5月21日</t>
+  </si>
+  <si>
+    <t>2050年6月13日</t>
+  </si>
+  <si>
+    <t>2099年7月15日</t>
+  </si>
+  <si>
+    <t>2100年6月23日</t>
+  </si>
+  <si>
+    <t>2000年1月26日</t>
+  </si>
+  <si>
+    <t>2001年3月1日</t>
+  </si>
+  <si>
+    <t>2001年11月27日</t>
+  </si>
+  <si>
+    <t>2002年12月7日</t>
+  </si>
+  <si>
+    <t>2012年3月2日</t>
+  </si>
+  <si>
+    <t>2012年8月3日</t>
+  </si>
+  <si>
+    <t>2006年3月31日</t>
+  </si>
+  <si>
+    <t>2006年6月1日</t>
+  </si>
+  <si>
+    <t>2000年3月14日</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>2004年6月14日</t>
+  </si>
+  <si>
+    <t>2004年12月18日</t>
+  </si>
+  <si>
+    <t>2004年2月16日</t>
+  </si>
+  <si>
+    <t>2004年1月31日</t>
+  </si>
+  <si>
+    <t>2004年5月1日</t>
+  </si>
+  <si>
+    <t>2004年12月31日</t>
+  </si>
+  <si>
+    <t>不存在该日期</t>
+  </si>
+  <si>
+    <t>2012年4月1日</t>
+  </si>
+  <si>
+    <t>2009年1月1日</t>
+  </si>
+  <si>
+    <t>2012年1月29日</t>
+  </si>
+  <si>
+    <t>2016年4月29日</t>
+  </si>
+  <si>
+    <t>2020年12月29日</t>
+  </si>
+  <si>
+    <t>2024年2月29日</t>
+  </si>
+  <si>
+    <t>2028年3月30日</t>
+  </si>
+  <si>
+    <t>2032年6月30日</t>
+  </si>
+  <si>
+    <t>2036年12月30日</t>
+  </si>
+  <si>
+    <t>2040年3月1日</t>
+  </si>
+  <si>
+    <t>2001年1月14日</t>
+  </si>
+  <si>
+    <t>2003年4月16日</t>
+  </si>
+  <si>
+    <t>2005年12月18日</t>
+  </si>
+  <si>
+    <t>2007年2月20日</t>
+  </si>
+  <si>
+    <t>2009年3月29日</t>
+  </si>
+  <si>
+    <t>2011年6月29日</t>
+  </si>
+  <si>
+    <t>2013年12月29日</t>
+  </si>
+  <si>
+    <t>2015年3月1日</t>
+  </si>
+  <si>
+    <t>2017年5月30日</t>
+  </si>
+  <si>
+    <t>2019年9月30日</t>
+  </si>
+  <si>
+    <t>2021年12月30日</t>
+  </si>
+  <si>
+    <t>2025年7月31日</t>
+  </si>
+  <si>
+    <t>2027年10月1日</t>
+  </si>
+  <si>
+    <t>2029年12月31日</t>
+  </si>
+  <si>
+    <t>2033年9月1日</t>
+  </si>
+  <si>
+    <t>2038年1月1日</t>
   </si>
 </sst>
 </file>
@@ -438,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,6 +665,12 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -529,6 +688,12 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -546,6 +711,12 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -563,6 +734,12 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -580,6 +757,12 @@
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -597,6 +780,12 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -614,6 +803,12 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -631,6 +826,12 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -648,6 +849,12 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -665,6 +872,12 @@
       <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -682,6 +895,12 @@
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -698,6 +917,932 @@
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2000</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2004</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2004</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2004</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2004</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2004</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2004</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>2004</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2012</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2016</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2008</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2020</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2012</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2016</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2020</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2024</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2028</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2032</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2036</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2040</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2001</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2003</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2005</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2007</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2009</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2011</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2013</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2015</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2017</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2019</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2021</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2025</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2027</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2029</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2031</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2033</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>31</v>
+      </c>
+      <c r="E51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>2035</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>31</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>2037</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2039</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>31</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
